--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/10/seed4/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.983699999999999</v>
+        <v>-6.109299999999996</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.36569999999998</v>
+        <v>-20.39239999999998</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.93460000000002</v>
+        <v>-22.95460000000002</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.13090000000003</v>
+        <v>-22.09170000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
